--- a/media/reports/izolasyon_MonoFazUI.xlsx
+++ b/media/reports/izolasyon_MonoFazUI.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9348" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rapor Sayfası" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,8 +19,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -100,11 +100,11 @@
       <sz val="12"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b val="1"/>
+      <sz val="12"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="12"/>
+      <sz val="9"/>
     </font>
   </fonts>
   <fills count="8">
@@ -556,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -652,25 +652,43 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -700,37 +718,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -751,13 +748,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -954,7 +951,7 @@
       <row>11</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1333500" cy="885825"/>
+    <ext cx="1228725" cy="847725"/>
     <pic>
       <nvPicPr>
         <cNvPr id="5" name="Image 5" descr="Picture"/>
@@ -1298,17 +1295,17 @@
           <t>Trafo Tipi :</t>
         </is>
       </c>
-      <c r="B1" s="44" t="inlineStr">
+      <c r="B1" s="55" t="inlineStr">
         <is>
           <t xml:space="preserve"> MonoFaz UI Izolasyon Trafosu  Hesap Ozeti</t>
         </is>
       </c>
-      <c r="C1" s="46" t="n"/>
-      <c r="D1" s="46" t="n"/>
-      <c r="E1" s="46" t="n"/>
-      <c r="F1" s="46" t="n"/>
-      <c r="G1" s="46" t="n"/>
-      <c r="H1" s="46" t="n"/>
+      <c r="C1" s="49" t="n"/>
+      <c r="D1" s="49" t="n"/>
+      <c r="E1" s="49" t="n"/>
+      <c r="F1" s="49" t="n"/>
+      <c r="G1" s="49" t="n"/>
+      <c r="H1" s="49" t="n"/>
       <c r="I1" s="11" t="n"/>
       <c r="J1" s="6" t="inlineStr">
         <is>
@@ -1318,31 +1315,31 @@
       <c r="K1" s="27" t="n"/>
       <c r="L1" s="27" t="n"/>
       <c r="M1" s="27" t="n"/>
-      <c r="N1" s="70" t="n">
-        <v>44320.39483720762</v>
-      </c>
-      <c r="O1" s="48" t="n"/>
+      <c r="N1" s="57" t="n">
+        <v>44321.48400486504</v>
+      </c>
+      <c r="O1" s="50" t="n"/>
     </row>
     <row r="2" ht="16.2" customHeight="1" thickBot="1">
-      <c r="A2" s="52" t="inlineStr">
+      <c r="A2" s="58" t="inlineStr">
         <is>
           <t>Değerler</t>
         </is>
       </c>
-      <c r="B2" s="46" t="n"/>
-      <c r="C2" s="46" t="n"/>
-      <c r="D2" s="46" t="n"/>
-      <c r="E2" s="46" t="n"/>
-      <c r="F2" s="46" t="n"/>
-      <c r="G2" s="46" t="n"/>
-      <c r="H2" s="46" t="n"/>
-      <c r="I2" s="46" t="n"/>
-      <c r="J2" s="46" t="n"/>
-      <c r="K2" s="46" t="n"/>
-      <c r="L2" s="46" t="n"/>
-      <c r="M2" s="46" t="n"/>
-      <c r="N2" s="46" t="n"/>
-      <c r="O2" s="48" t="n"/>
+      <c r="B2" s="49" t="n"/>
+      <c r="C2" s="49" t="n"/>
+      <c r="D2" s="49" t="n"/>
+      <c r="E2" s="49" t="n"/>
+      <c r="F2" s="49" t="n"/>
+      <c r="G2" s="49" t="n"/>
+      <c r="H2" s="49" t="n"/>
+      <c r="I2" s="49" t="n"/>
+      <c r="J2" s="49" t="n"/>
+      <c r="K2" s="49" t="n"/>
+      <c r="L2" s="49" t="n"/>
+      <c r="M2" s="49" t="n"/>
+      <c r="N2" s="49" t="n"/>
+      <c r="O2" s="50" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
@@ -1350,40 +1347,40 @@
           <t>Güç :</t>
         </is>
       </c>
-      <c r="B3" s="71" t="inlineStr">
-        <is>
-          <t>26000.0 VA</t>
+      <c r="B3" s="52" t="inlineStr">
+        <is>
+          <t>500.0 VA</t>
         </is>
       </c>
       <c r="C3" s="72" t="n"/>
       <c r="D3" s="72" t="n"/>
       <c r="E3" s="72" t="n"/>
-      <c r="F3" s="51" t="n"/>
+      <c r="F3" s="54" t="n"/>
       <c r="G3" s="9" t="inlineStr">
         <is>
           <t>Primer Agirlik(Al) :</t>
         </is>
       </c>
-      <c r="H3" s="73" t="inlineStr">
-        <is>
-          <t>0.0 kg</t>
-        </is>
-      </c>
-      <c r="I3" s="51" t="n"/>
-      <c r="J3" s="74" t="inlineStr">
+      <c r="H3" s="53" t="inlineStr">
+        <is>
+          <t>0.015 kg</t>
+        </is>
+      </c>
+      <c r="I3" s="54" t="n"/>
+      <c r="J3" s="73" t="inlineStr">
         <is>
           <t xml:space="preserve">Karkas Ölçüleri : </t>
         </is>
       </c>
-      <c r="K3" s="54" t="n"/>
-      <c r="L3" s="75" t="inlineStr">
-        <is>
-          <t>85.0 x 120.0 x 171.0</t>
-        </is>
-      </c>
-      <c r="M3" s="53" t="n"/>
-      <c r="N3" s="53" t="n"/>
-      <c r="O3" s="54" t="n"/>
+      <c r="K3" s="60" t="n"/>
+      <c r="L3" s="74" t="inlineStr">
+        <is>
+          <t>100.0 x 120.0 x 72.0</t>
+        </is>
+      </c>
+      <c r="M3" s="59" t="n"/>
+      <c r="N3" s="59" t="n"/>
+      <c r="O3" s="60" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
@@ -1391,7 +1388,7 @@
           <t>Sac kk :</t>
         </is>
       </c>
-      <c r="B4" s="71" t="inlineStr">
+      <c r="B4" s="52" t="inlineStr">
         <is>
           <t>7.0</t>
         </is>
@@ -1399,30 +1396,30 @@
       <c r="C4" s="72" t="n"/>
       <c r="D4" s="72" t="n"/>
       <c r="E4" s="72" t="n"/>
-      <c r="F4" s="51" t="n"/>
+      <c r="F4" s="54" t="n"/>
       <c r="G4" s="9" t="inlineStr">
         <is>
           <t>Sekonder Agirlik(Al):</t>
         </is>
       </c>
-      <c r="H4" s="73" t="inlineStr">
+      <c r="H4" s="53" t="inlineStr">
         <is>
           <t>0.0 kg</t>
         </is>
       </c>
-      <c r="I4" s="51" t="n"/>
-      <c r="J4" s="76" t="inlineStr">
+      <c r="I4" s="54" t="n"/>
+      <c r="J4" s="75" t="inlineStr">
         <is>
           <t xml:space="preserve">Trafo Ölçüleri : </t>
         </is>
       </c>
-      <c r="K4" s="77" t="n"/>
-      <c r="L4" s="78" t="inlineStr">
-        <is>
-          <t>492.0 x 241.0 x 354.0</t>
-        </is>
-      </c>
-      <c r="O4" s="77" t="n"/>
+      <c r="K4" s="76" t="n"/>
+      <c r="L4" s="77" t="inlineStr">
+        <is>
+          <t>600.0 x 262.0 x 500.0</t>
+        </is>
+      </c>
+      <c r="O4" s="76" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
@@ -1430,38 +1427,38 @@
           <t>Sac ©</t>
         </is>
       </c>
-      <c r="B5" s="71" t="inlineStr">
-        <is>
-          <t>0.35 mm</t>
+      <c r="B5" s="52" t="inlineStr">
+        <is>
+          <t>0.5 mm</t>
         </is>
       </c>
       <c r="C5" s="72" t="n"/>
       <c r="D5" s="72" t="n"/>
       <c r="E5" s="72" t="n"/>
-      <c r="F5" s="51" t="n"/>
+      <c r="F5" s="54" t="n"/>
       <c r="G5" s="9" t="inlineStr">
         <is>
           <t>Primer Agirlik(Cu) :</t>
         </is>
       </c>
-      <c r="H5" s="73" t="inlineStr">
-        <is>
-          <t>2.475 kg</t>
-        </is>
-      </c>
-      <c r="I5" s="51" t="n"/>
-      <c r="J5" s="76" t="inlineStr">
+      <c r="H5" s="53" t="inlineStr">
+        <is>
+          <t>0.0 kg</t>
+        </is>
+      </c>
+      <c r="I5" s="54" t="n"/>
+      <c r="J5" s="75" t="inlineStr">
         <is>
           <t xml:space="preserve">Klemens &amp; Ayak : </t>
         </is>
       </c>
-      <c r="K5" s="77" t="n"/>
-      <c r="L5" s="78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> / 0.0 / 0.0 - </t>
-        </is>
-      </c>
-      <c r="O5" s="77" t="n"/>
+      <c r="K5" s="76" t="n"/>
+      <c r="L5" s="77" t="inlineStr">
+        <is>
+          <t>TRV4B / 25.0 / 18.0 - 133 Kose</t>
+        </is>
+      </c>
+      <c r="O5" s="76" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
@@ -1469,38 +1466,38 @@
           <t>Gauss :</t>
         </is>
       </c>
-      <c r="B6" s="71" t="inlineStr">
-        <is>
-          <t>12000.0</t>
+      <c r="B6" s="52" t="inlineStr">
+        <is>
+          <t>11500.0</t>
         </is>
       </c>
       <c r="C6" s="72" t="n"/>
       <c r="D6" s="72" t="n"/>
       <c r="E6" s="72" t="n"/>
-      <c r="F6" s="51" t="n"/>
+      <c r="F6" s="54" t="n"/>
       <c r="G6" s="9" t="inlineStr">
         <is>
           <t>Sekonder Agirlik(Cu) :</t>
         </is>
       </c>
-      <c r="H6" s="73" t="inlineStr">
-        <is>
-          <t>5.341 kg</t>
-        </is>
-      </c>
-      <c r="I6" s="51" t="n"/>
-      <c r="J6" s="76" t="inlineStr">
+      <c r="H6" s="53" t="inlineStr">
+        <is>
+          <t>0.0 kg</t>
+        </is>
+      </c>
+      <c r="I6" s="54" t="n"/>
+      <c r="J6" s="75" t="inlineStr">
         <is>
           <t xml:space="preserve">Sac Agirlik : </t>
         </is>
       </c>
-      <c r="K6" s="77" t="n"/>
-      <c r="L6" s="78" t="inlineStr">
-        <is>
-          <t>93.02 kg (Kesme Sac)</t>
-        </is>
-      </c>
-      <c r="O6" s="77" t="n"/>
+      <c r="K6" s="76" t="n"/>
+      <c r="L6" s="77" t="inlineStr">
+        <is>
+          <t>175.728 kg(EI Sac)</t>
+        </is>
+      </c>
+      <c r="O6" s="76" t="n"/>
     </row>
     <row r="7" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="4" t="inlineStr">
@@ -1508,7 +1505,7 @@
           <t>Frekans :</t>
         </is>
       </c>
-      <c r="B7" s="71" t="inlineStr">
+      <c r="B7" s="52" t="inlineStr">
         <is>
           <t>50.0 Hz</t>
         </is>
@@ -1516,20 +1513,20 @@
       <c r="C7" s="72" t="n"/>
       <c r="D7" s="72" t="n"/>
       <c r="E7" s="72" t="n"/>
-      <c r="F7" s="51" t="n"/>
+      <c r="F7" s="54" t="n"/>
       <c r="G7" s="10" t="inlineStr">
         <is>
           <t>Toplam Agirlik :</t>
         </is>
       </c>
-      <c r="H7" s="73" t="inlineStr">
-        <is>
-          <t>Al:0.0 //  Cu:7.816kg</t>
-        </is>
-      </c>
-      <c r="I7" s="51" t="n"/>
-      <c r="J7" s="79" t="n"/>
-      <c r="K7" s="80" t="n"/>
+      <c r="H7" s="53" t="inlineStr">
+        <is>
+          <t>Al:0.015 //  Cu:0.0kg</t>
+        </is>
+      </c>
+      <c r="I7" s="54" t="n"/>
+      <c r="J7" s="78" t="n"/>
+      <c r="K7" s="79" t="n"/>
       <c r="L7" s="32" t="n"/>
       <c r="M7" s="31" t="n"/>
       <c r="N7" s="31" t="n"/>
@@ -1539,127 +1536,123 @@
       <c r="A8" s="1" t="n"/>
     </row>
     <row r="9" ht="15" customHeight="1" thickBot="1">
-      <c r="A9" s="67" t="inlineStr">
+      <c r="A9" s="48" t="inlineStr">
         <is>
           <t>Primer</t>
         </is>
       </c>
-      <c r="B9" s="46" t="n"/>
-      <c r="C9" s="46" t="n"/>
-      <c r="D9" s="46" t="n"/>
-      <c r="E9" s="46" t="n"/>
-      <c r="F9" s="46" t="n"/>
-      <c r="G9" s="48" t="n"/>
-      <c r="I9" s="68" t="inlineStr">
+      <c r="B9" s="49" t="n"/>
+      <c r="C9" s="49" t="n"/>
+      <c r="D9" s="49" t="n"/>
+      <c r="E9" s="49" t="n"/>
+      <c r="F9" s="49" t="n"/>
+      <c r="G9" s="50" t="n"/>
+      <c r="I9" s="51" t="inlineStr">
         <is>
           <t>Sekonder</t>
         </is>
       </c>
-      <c r="J9" s="46" t="n"/>
-      <c r="K9" s="46" t="n"/>
-      <c r="L9" s="46" t="n"/>
-      <c r="M9" s="46" t="n"/>
-      <c r="N9" s="46" t="n"/>
-      <c r="O9" s="48" t="n"/>
+      <c r="J9" s="49" t="n"/>
+      <c r="K9" s="49" t="n"/>
+      <c r="L9" s="49" t="n"/>
+      <c r="M9" s="49" t="n"/>
+      <c r="N9" s="49" t="n"/>
+      <c r="O9" s="50" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>400.0 V ( 400.0V )</t>
+          <t>344.0 V ( 344.0V )</t>
         </is>
       </c>
       <c r="I10" s="1" t="n"/>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>230.0 V ( 459.4595V )</t>
+          <t>0.0 V ( 0.0V )</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="81" t="inlineStr">
+      <c r="A11" s="80" t="inlineStr">
         <is>
           <t>1 NOLU KADEME:</t>
         </is>
       </c>
-      <c r="I11" s="81" t="inlineStr">
+      <c r="I11" s="80" t="inlineStr">
         <is>
           <t>1 NOLU KADEME:</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="82" t="inlineStr">
+      <c r="A12" s="81" t="inlineStr">
         <is>
           <t>Tel :</t>
         </is>
       </c>
       <c r="B12" s="26" t="inlineStr">
         <is>
-          <t>Cu</t>
+          <t>Al</t>
         </is>
       </c>
       <c r="C12" s="22" t="n"/>
       <c r="D12" s="22" t="n"/>
       <c r="E12" s="22" t="n"/>
-      <c r="I12" s="82" t="inlineStr">
+      <c r="I12" s="81" t="inlineStr">
         <is>
           <t>Tel :</t>
         </is>
       </c>
-      <c r="J12" s="22" t="inlineStr">
-        <is>
-          <t>Cu</t>
-        </is>
-      </c>
+      <c r="J12" s="22" t="inlineStr"/>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="22" t="n"/>
       <c r="M12" s="22" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="82" t="inlineStr">
+      <c r="A13" s="81" t="inlineStr">
         <is>
           <t>Cap :</t>
         </is>
       </c>
       <c r="B13" s="26" t="n">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="C13" s="21" t="n"/>
       <c r="D13" s="21" t="n"/>
       <c r="E13" s="21" t="n"/>
-      <c r="I13" s="82" t="inlineStr">
+      <c r="I13" s="81" t="inlineStr">
         <is>
           <t>Cap :</t>
         </is>
       </c>
       <c r="J13" s="21" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="K13" s="21" t="n"/>
       <c r="L13" s="21" t="n"/>
       <c r="M13" s="21" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="82" t="inlineStr">
+      <c r="A14" s="81" t="inlineStr">
         <is>
           <t>Kesit :</t>
         </is>
       </c>
       <c r="B14" s="26" t="n">
-        <v>2.835287369864788</v>
+        <v>0.07068583470577035</v>
       </c>
       <c r="C14" s="21" t="n"/>
       <c r="D14" s="21" t="n"/>
       <c r="E14" s="21" t="n"/>
       <c r="G14" s="1" t="n"/>
-      <c r="I14" s="82" t="inlineStr">
+      <c r="I14" s="81" t="inlineStr">
         <is>
           <t>Kesit :</t>
         </is>
       </c>
       <c r="J14" s="21" t="n">
-        <v>4.908738521234052</v>
+        <v>0</v>
       </c>
       <c r="K14" s="21" t="n"/>
       <c r="L14" s="21" t="n"/>
@@ -1667,25 +1660,25 @@
       <c r="O14" s="1" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="82" t="inlineStr">
+      <c r="A15" s="81" t="inlineStr">
         <is>
           <t>Akim :</t>
         </is>
       </c>
       <c r="B15" s="26" t="n">
-        <v>8.505862109594364</v>
+        <v>0.1130973355292326</v>
       </c>
       <c r="C15" s="21" t="n"/>
       <c r="D15" s="21" t="n"/>
       <c r="E15" s="21" t="n"/>
       <c r="G15" s="2" t="n"/>
-      <c r="I15" s="82" t="inlineStr">
+      <c r="I15" s="81" t="inlineStr">
         <is>
           <t>Akim :</t>
         </is>
       </c>
       <c r="J15" s="21" t="n">
-        <v>14.72621556370216</v>
+        <v>0</v>
       </c>
       <c r="K15" s="21" t="n"/>
       <c r="L15" s="21" t="n"/>
@@ -1693,7 +1686,7 @@
       <c r="O15" s="2" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="82" t="inlineStr">
+      <c r="A16" s="81" t="inlineStr">
         <is>
           <t>Kat :</t>
         </is>
@@ -1704,45 +1697,45 @@
       <c r="C16" s="21" t="n"/>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="n"/>
-      <c r="I16" s="82" t="inlineStr">
+      <c r="I16" s="81" t="inlineStr">
         <is>
           <t>Kat :</t>
         </is>
       </c>
       <c r="J16" s="21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K16" s="21" t="n"/>
       <c r="L16" s="21" t="n"/>
       <c r="M16" s="21" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="82" t="inlineStr">
+      <c r="A17" s="81" t="inlineStr">
         <is>
           <t>Uzunluk :</t>
         </is>
       </c>
       <c r="B17" s="26" t="n">
-        <v>33.446076</v>
+        <v>26.956944</v>
       </c>
       <c r="C17" s="21" t="n"/>
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="21" t="n"/>
-      <c r="I17" s="82" t="inlineStr">
+      <c r="I17" s="81" t="inlineStr">
         <is>
           <t>Uzunluk :</t>
         </is>
       </c>
       <c r="J17" s="21" t="n">
-        <v>41.68683</v>
+        <v>0</v>
       </c>
       <c r="K17" s="21" t="n"/>
       <c r="L17" s="21" t="n"/>
       <c r="M17" s="21" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="83" t="inlineStr"/>
-      <c r="C18" s="82" t="inlineStr">
+      <c r="B18" s="82" t="inlineStr"/>
+      <c r="C18" s="81" t="inlineStr">
         <is>
           <t>-- Teller --</t>
         </is>
@@ -1750,8 +1743,8 @@
       <c r="D18" s="25" t="n"/>
       <c r="E18" s="25" t="n"/>
       <c r="G18" s="2" t="n"/>
-      <c r="J18" s="83" t="inlineStr"/>
-      <c r="K18" s="82" t="inlineStr">
+      <c r="J18" s="82" t="inlineStr"/>
+      <c r="K18" s="81" t="inlineStr">
         <is>
           <t>-- Teller --</t>
         </is>
@@ -1761,65 +1754,61 @@
       <c r="O18" s="2" t="n"/>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="82" t="inlineStr">
+      <c r="A19" s="81" t="inlineStr">
         <is>
           <t>Yuv. Tel :</t>
         </is>
       </c>
-      <c r="B19" s="84" t="n">
-        <v>1.9</v>
+      <c r="B19" s="83" t="n">
+        <v>0.3</v>
       </c>
       <c r="C19" s="24" t="n"/>
       <c r="D19" s="24" t="n"/>
       <c r="E19" s="24" t="n"/>
       <c r="G19" s="17" t="inlineStr">
         <is>
-          <t>74 sp</t>
-        </is>
-      </c>
-      <c r="I19" s="82" t="inlineStr">
+          <t>56 sp</t>
+        </is>
+      </c>
+      <c r="I19" s="81" t="inlineStr">
         <is>
           <t>Yuv. Tel :</t>
         </is>
       </c>
-      <c r="J19" s="84" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="J19" s="24" t="n"/>
       <c r="K19" s="24" t="n"/>
       <c r="L19" s="24" t="n"/>
       <c r="M19" s="24" t="n"/>
       <c r="O19" s="17" t="inlineStr">
         <is>
-          <t>85 sp</t>
+          <t>0 sp</t>
         </is>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="82" t="inlineStr">
+      <c r="A20" s="81" t="inlineStr">
         <is>
           <t>Ytel Agr :</t>
         </is>
       </c>
-      <c r="B20" s="84" t="n">
-        <v>0.8250143606327389</v>
+      <c r="B20" s="83" t="n">
+        <v>0.005144780036943111</v>
       </c>
       <c r="C20" s="26" t="n"/>
       <c r="D20" s="26" t="n"/>
       <c r="E20" s="26" t="n"/>
-      <c r="I20" s="82" t="inlineStr">
+      <c r="I20" s="81" t="inlineStr">
         <is>
           <t>Ytel Agr :</t>
         </is>
       </c>
-      <c r="J20" s="84" t="n">
-        <v>1.780278809767477</v>
-      </c>
+      <c r="J20" s="26" t="n"/>
       <c r="K20" s="26" t="n"/>
       <c r="L20" s="26" t="n"/>
       <c r="M20" s="26" t="n"/>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="82" t="inlineStr">
+      <c r="A21" s="81" t="inlineStr">
         <is>
           <t>Kare Tel :</t>
         </is>
@@ -1828,7 +1817,7 @@
       <c r="C21" s="24" t="n"/>
       <c r="D21" s="24" t="n"/>
       <c r="E21" s="24" t="n"/>
-      <c r="I21" s="82" t="inlineStr">
+      <c r="I21" s="81" t="inlineStr">
         <is>
           <t>Kare Tel :</t>
         </is>
@@ -1839,7 +1828,7 @@
       <c r="M21" s="24" t="n"/>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="82" t="inlineStr">
+      <c r="A22" s="81" t="inlineStr">
         <is>
           <t>Ktel Agr :</t>
         </is>
@@ -1848,7 +1837,7 @@
       <c r="C22" s="26" t="n"/>
       <c r="D22" s="26" t="n"/>
       <c r="E22" s="26" t="n"/>
-      <c r="I22" s="82" t="inlineStr">
+      <c r="I22" s="81" t="inlineStr">
         <is>
           <t>Ktel Agr :</t>
         </is>
@@ -1859,7 +1848,7 @@
       <c r="M22" s="26" t="n"/>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="82" t="inlineStr">
+      <c r="A23" s="81" t="inlineStr">
         <is>
           <t>Folyo :</t>
         </is>
@@ -1868,7 +1857,7 @@
       <c r="C23" s="24" t="n"/>
       <c r="D23" s="24" t="n"/>
       <c r="E23" s="24" t="n"/>
-      <c r="I23" s="82" t="inlineStr">
+      <c r="I23" s="81" t="inlineStr">
         <is>
           <t>Folyo :</t>
         </is>
@@ -1879,7 +1868,7 @@
       <c r="M23" s="24" t="n"/>
     </row>
     <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="82" t="inlineStr">
+      <c r="A24" s="81" t="inlineStr">
         <is>
           <t>Folyo Agr :</t>
         </is>
@@ -1888,7 +1877,7 @@
       <c r="C24" s="26" t="n"/>
       <c r="D24" s="26" t="n"/>
       <c r="E24" s="26" t="n"/>
-      <c r="I24" s="82" t="inlineStr">
+      <c r="I24" s="81" t="inlineStr">
         <is>
           <t>Folyo Agr :</t>
         </is>
@@ -1899,7 +1888,7 @@
       <c r="M24" s="26" t="n"/>
     </row>
     <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="82" t="inlineStr">
+      <c r="A25" s="81" t="inlineStr">
         <is>
           <t>Kapton :</t>
         </is>
@@ -1909,7 +1898,7 @@
       <c r="D25" s="24" t="n"/>
       <c r="E25" s="24" t="n"/>
       <c r="G25" s="2" t="n"/>
-      <c r="I25" s="82" t="inlineStr">
+      <c r="I25" s="81" t="inlineStr">
         <is>
           <t>Kapton :</t>
         </is>
@@ -1941,14 +1930,14 @@
       <c r="G34" s="15" t="n"/>
     </row>
     <row r="35" ht="15" customHeight="1" thickBot="1">
-      <c r="B35" s="85" t="inlineStr">
+      <c r="B35" s="84" t="inlineStr">
         <is>
           <t>Primer Kademe</t>
         </is>
       </c>
-      <c r="C35" s="46" t="n"/>
-      <c r="D35" s="46" t="n"/>
-      <c r="E35" s="48" t="n"/>
+      <c r="C35" s="49" t="n"/>
+      <c r="D35" s="49" t="n"/>
+      <c r="E35" s="50" t="n"/>
       <c r="F35" s="7" t="inlineStr">
         <is>
           <t>Tur</t>
@@ -1961,14 +1950,18 @@
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" thickBot="1">
-      <c r="B36" s="86" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="C36" s="46" t="n"/>
-      <c r="D36" s="46" t="n"/>
-      <c r="E36" s="87" t="n"/>
-      <c r="F36" s="18" t="n">
-        <v>10</v>
+      <c r="B36" s="85" t="inlineStr">
+        <is>
+          <t>Yok</t>
+        </is>
+      </c>
+      <c r="C36" s="49" t="n"/>
+      <c r="D36" s="49" t="n"/>
+      <c r="E36" s="86" t="n"/>
+      <c r="F36" s="18" t="inlineStr">
+        <is>
+          <t>Yok</t>
+        </is>
       </c>
       <c r="G36" s="19" t="inlineStr">
         <is>
@@ -1977,14 +1970,14 @@
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" thickBot="1">
-      <c r="B37" s="85" t="inlineStr">
+      <c r="B37" s="84" t="inlineStr">
         <is>
           <t xml:space="preserve">VA Kademe </t>
         </is>
       </c>
-      <c r="C37" s="46" t="n"/>
-      <c r="D37" s="46" t="n"/>
-      <c r="E37" s="48" t="n"/>
+      <c r="C37" s="49" t="n"/>
+      <c r="D37" s="49" t="n"/>
+      <c r="E37" s="50" t="n"/>
       <c r="F37" s="7" t="inlineStr">
         <is>
           <t>Tur</t>
@@ -1997,14 +1990,14 @@
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" thickBot="1">
-      <c r="B38" s="86" t="inlineStr">
+      <c r="B38" s="85" t="inlineStr">
         <is>
           <t>Yok</t>
         </is>
       </c>
-      <c r="C38" s="46" t="n"/>
-      <c r="D38" s="46" t="n"/>
-      <c r="E38" s="87" t="n"/>
+      <c r="C38" s="49" t="n"/>
+      <c r="D38" s="49" t="n"/>
+      <c r="E38" s="86" t="n"/>
       <c r="F38" s="18" t="inlineStr">
         <is>
           <t>Yok</t>
@@ -2017,14 +2010,14 @@
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" thickBot="1">
-      <c r="B39" s="85" t="inlineStr">
+      <c r="B39" s="84" t="inlineStr">
         <is>
           <t>Primer-Sekonder</t>
         </is>
       </c>
-      <c r="C39" s="46" t="n"/>
-      <c r="D39" s="46" t="n"/>
-      <c r="E39" s="48" t="n"/>
+      <c r="C39" s="49" t="n"/>
+      <c r="D39" s="49" t="n"/>
+      <c r="E39" s="50" t="n"/>
       <c r="F39" s="7" t="inlineStr">
         <is>
           <t>Tur</t>
@@ -2033,14 +2026,14 @@
       <c r="G39" s="8" t="n"/>
     </row>
     <row r="40" ht="15" customHeight="1" thickBot="1">
-      <c r="B40" s="86" t="inlineStr">
+      <c r="B40" s="85" t="inlineStr">
         <is>
           <t>Yok</t>
         </is>
       </c>
-      <c r="C40" s="46" t="n"/>
-      <c r="D40" s="46" t="n"/>
-      <c r="E40" s="87" t="n"/>
+      <c r="C40" s="49" t="n"/>
+      <c r="D40" s="49" t="n"/>
+      <c r="E40" s="86" t="n"/>
       <c r="F40" s="20" t="inlineStr">
         <is>
           <t>Yok</t>
@@ -2159,27 +2152,27 @@
     <row r="46">
       <c r="B46" s="28" t="inlineStr">
         <is>
-          <t>492.0 mm</t>
+          <t>600.0 mm</t>
         </is>
       </c>
       <c r="C46" s="29" t="inlineStr">
         <is>
-          <t>241.0 mm</t>
+          <t>262.0 mm</t>
         </is>
       </c>
       <c r="D46" s="29" t="inlineStr">
         <is>
-          <t>354.0 mm</t>
+          <t>500.0 mm</t>
         </is>
       </c>
       <c r="E46" s="29" t="inlineStr">
         <is>
-          <t>407.0 mm</t>
+          <t>500.0 mm</t>
         </is>
       </c>
       <c r="F46" s="29" t="inlineStr">
         <is>
-          <t>186.0 mm</t>
+          <t>196.0 mm</t>
         </is>
       </c>
       <c r="G46" s="30" t="inlineStr">
@@ -2190,14 +2183,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="I9:O9"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:I7"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="B3:F3"/>
@@ -2214,6 +2199,14 @@
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="B37:E37"/>
@@ -2239,15 +2232,15 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" activeCellId="1" sqref="D1:D1048576 C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="4.44140625" customWidth="1" min="1" max="1"/>
-    <col width="18.33203125" customWidth="1" min="2" max="2"/>
-    <col width="9.77734375" customWidth="1" min="3" max="3"/>
-    <col width="10.88671875" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="19.33203125" customWidth="1" style="25" min="3" max="3"/>
+    <col width="19.77734375" customWidth="1" style="25" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2257,10 +2250,10 @@
           <t>Malzeme Listesi</t>
         </is>
       </c>
-      <c r="C1" s="88" t="n"/>
-      <c r="D1" s="88" t="n"/>
-      <c r="E1" s="88" t="n"/>
-      <c r="F1" s="89" t="n"/>
+      <c r="C1" s="87" t="n"/>
+      <c r="D1" s="87" t="n"/>
+      <c r="E1" s="87" t="n"/>
+      <c r="F1" s="88" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="42" t="n"/>
@@ -2269,12 +2262,12 @@
           <t>Urun Kodu</t>
         </is>
       </c>
-      <c r="C2" s="43" t="inlineStr">
+      <c r="C2" s="70" t="inlineStr">
         <is>
           <t>Cap/Kesit</t>
         </is>
       </c>
-      <c r="D2" s="43" t="inlineStr">
+      <c r="D2" s="70" t="inlineStr">
         <is>
           <t>Agirlik</t>
         </is>
@@ -2288,16 +2281,16 @@
       </c>
       <c r="B3" s="42" t="inlineStr">
         <is>
-          <t>H010011X90AET</t>
-        </is>
-      </c>
-      <c r="C3" s="42" t="inlineStr">
-        <is>
-          <t>1.9</t>
-        </is>
-      </c>
-      <c r="D3" s="42" t="n">
-        <v>0.8250143606327389</v>
+          <t>H010010X30AET</t>
+        </is>
+      </c>
+      <c r="C3" s="71" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="D3" s="71" t="n">
+        <v>0.005144780036943111</v>
       </c>
       <c r="E3" s="42" t="n"/>
       <c r="F3" s="42" t="n"/>
@@ -2308,17 +2301,15 @@
       </c>
       <c r="B4" s="42" t="inlineStr">
         <is>
-          <t>H010012X50AET</t>
-        </is>
-      </c>
-      <c r="C4" s="42" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
-      <c r="D4" s="42" t="n">
-        <v>1.780278809767477</v>
-      </c>
+          <t>H0201001200TD</t>
+        </is>
+      </c>
+      <c r="C4" s="71" t="inlineStr">
+        <is>
+          <t>100.0 x 120.0 x 72.0</t>
+        </is>
+      </c>
+      <c r="D4" s="71" t="n"/>
       <c r="E4" s="42" t="n"/>
       <c r="F4" s="42" t="n"/>
     </row>
@@ -2326,9 +2317,21 @@
       <c r="A5" s="42" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="42" t="n"/>
-      <c r="C5" s="42" t="n"/>
-      <c r="D5" s="42" t="n"/>
+      <c r="B5" s="42" t="inlineStr">
+        <is>
+          <t>EI Sac</t>
+        </is>
+      </c>
+      <c r="C5" s="71" t="inlineStr">
+        <is>
+          <t>0.5 mm</t>
+        </is>
+      </c>
+      <c r="D5" s="71" t="inlineStr">
+        <is>
+          <t>175.728 kg</t>
+        </is>
+      </c>
       <c r="E5" s="42" t="n"/>
       <c r="F5" s="42" t="n"/>
     </row>
@@ -2337,8 +2340,8 @@
         <v>4</v>
       </c>
       <c r="B6" s="42" t="n"/>
-      <c r="C6" s="42" t="n"/>
-      <c r="D6" s="42" t="n"/>
+      <c r="C6" s="71" t="n"/>
+      <c r="D6" s="71" t="n"/>
       <c r="E6" s="42" t="n"/>
       <c r="F6" s="42" t="n"/>
     </row>
@@ -2347,8 +2350,8 @@
         <v>5</v>
       </c>
       <c r="B7" s="42" t="n"/>
-      <c r="C7" s="42" t="n"/>
-      <c r="D7" s="42" t="n"/>
+      <c r="C7" s="71" t="n"/>
+      <c r="D7" s="71" t="n"/>
       <c r="E7" s="42" t="n"/>
       <c r="F7" s="42" t="n"/>
     </row>
@@ -2357,8 +2360,8 @@
         <v>6</v>
       </c>
       <c r="B8" s="42" t="n"/>
-      <c r="C8" s="42" t="n"/>
-      <c r="D8" s="42" t="n"/>
+      <c r="C8" s="71" t="n"/>
+      <c r="D8" s="71" t="n"/>
       <c r="E8" s="42" t="n"/>
       <c r="F8" s="42" t="n"/>
     </row>
@@ -2367,8 +2370,8 @@
         <v>7</v>
       </c>
       <c r="B9" s="42" t="n"/>
-      <c r="C9" s="42" t="n"/>
-      <c r="D9" s="42" t="n"/>
+      <c r="C9" s="71" t="n"/>
+      <c r="D9" s="71" t="n"/>
       <c r="E9" s="42" t="n"/>
       <c r="F9" s="42" t="n"/>
     </row>
@@ -2377,8 +2380,8 @@
         <v>8</v>
       </c>
       <c r="B10" s="42" t="n"/>
-      <c r="C10" s="42" t="n"/>
-      <c r="D10" s="42" t="n"/>
+      <c r="C10" s="71" t="n"/>
+      <c r="D10" s="71" t="n"/>
       <c r="E10" s="42" t="n"/>
       <c r="F10" s="42" t="n"/>
     </row>
@@ -2387,8 +2390,8 @@
         <v>9</v>
       </c>
       <c r="B11" s="42" t="n"/>
-      <c r="C11" s="42" t="n"/>
-      <c r="D11" s="42" t="n"/>
+      <c r="C11" s="71" t="n"/>
+      <c r="D11" s="71" t="n"/>
       <c r="E11" s="42" t="n"/>
       <c r="F11" s="42" t="n"/>
     </row>
@@ -2397,8 +2400,8 @@
         <v>10</v>
       </c>
       <c r="B12" s="42" t="n"/>
-      <c r="C12" s="42" t="n"/>
-      <c r="D12" s="42" t="n"/>
+      <c r="C12" s="71" t="n"/>
+      <c r="D12" s="71" t="n"/>
       <c r="E12" s="42" t="n"/>
       <c r="F12" s="42" t="n"/>
     </row>
@@ -2407,8 +2410,8 @@
         <v>11</v>
       </c>
       <c r="B13" s="42" t="n"/>
-      <c r="C13" s="42" t="n"/>
-      <c r="D13" s="42" t="n"/>
+      <c r="C13" s="71" t="n"/>
+      <c r="D13" s="71" t="n"/>
       <c r="E13" s="42" t="n"/>
       <c r="F13" s="42" t="n"/>
     </row>
@@ -2417,8 +2420,8 @@
         <v>12</v>
       </c>
       <c r="B14" s="42" t="n"/>
-      <c r="C14" s="42" t="n"/>
-      <c r="D14" s="42" t="n"/>
+      <c r="C14" s="71" t="n"/>
+      <c r="D14" s="71" t="n"/>
       <c r="E14" s="42" t="n"/>
       <c r="F14" s="42" t="n"/>
     </row>
@@ -2427,8 +2430,8 @@
         <v>13</v>
       </c>
       <c r="B15" s="42" t="n"/>
-      <c r="C15" s="42" t="n"/>
-      <c r="D15" s="42" t="n"/>
+      <c r="C15" s="71" t="n"/>
+      <c r="D15" s="71" t="n"/>
       <c r="E15" s="42" t="n"/>
       <c r="F15" s="42" t="n"/>
     </row>
@@ -2437,8 +2440,8 @@
         <v>14</v>
       </c>
       <c r="B16" s="42" t="n"/>
-      <c r="C16" s="42" t="n"/>
-      <c r="D16" s="42" t="n"/>
+      <c r="C16" s="71" t="n"/>
+      <c r="D16" s="71" t="n"/>
       <c r="E16" s="42" t="n"/>
       <c r="F16" s="42" t="n"/>
     </row>
@@ -2447,8 +2450,8 @@
         <v>15</v>
       </c>
       <c r="B17" s="42" t="n"/>
-      <c r="C17" s="42" t="n"/>
-      <c r="D17" s="42" t="n"/>
+      <c r="C17" s="71" t="n"/>
+      <c r="D17" s="71" t="n"/>
       <c r="E17" s="42" t="n"/>
       <c r="F17" s="42" t="n"/>
     </row>
@@ -2457,8 +2460,8 @@
         <v>16</v>
       </c>
       <c r="B18" s="42" t="n"/>
-      <c r="C18" s="42" t="n"/>
-      <c r="D18" s="42" t="n"/>
+      <c r="C18" s="71" t="n"/>
+      <c r="D18" s="71" t="n"/>
       <c r="E18" s="42" t="n"/>
       <c r="F18" s="42" t="n"/>
     </row>
@@ -2467,8 +2470,8 @@
         <v>17</v>
       </c>
       <c r="B19" s="42" t="n"/>
-      <c r="C19" s="42" t="n"/>
-      <c r="D19" s="42" t="n"/>
+      <c r="C19" s="71" t="n"/>
+      <c r="D19" s="71" t="n"/>
       <c r="E19" s="42" t="n"/>
       <c r="F19" s="42" t="n"/>
     </row>
@@ -2477,8 +2480,8 @@
         <v>18</v>
       </c>
       <c r="B20" s="42" t="n"/>
-      <c r="C20" s="42" t="n"/>
-      <c r="D20" s="42" t="n"/>
+      <c r="C20" s="71" t="n"/>
+      <c r="D20" s="71" t="n"/>
       <c r="E20" s="42" t="n"/>
       <c r="F20" s="42" t="n"/>
     </row>
@@ -2487,8 +2490,8 @@
         <v>19</v>
       </c>
       <c r="B21" s="42" t="n"/>
-      <c r="C21" s="42" t="n"/>
-      <c r="D21" s="42" t="n"/>
+      <c r="C21" s="71" t="n"/>
+      <c r="D21" s="71" t="n"/>
       <c r="E21" s="42" t="n"/>
       <c r="F21" s="42" t="n"/>
     </row>
@@ -2497,8 +2500,8 @@
         <v>20</v>
       </c>
       <c r="B22" s="42" t="n"/>
-      <c r="C22" s="42" t="n"/>
-      <c r="D22" s="42" t="n"/>
+      <c r="C22" s="71" t="n"/>
+      <c r="D22" s="71" t="n"/>
       <c r="E22" s="42" t="n"/>
       <c r="F22" s="42" t="n"/>
     </row>
@@ -2507,8 +2510,8 @@
         <v>21</v>
       </c>
       <c r="B23" s="42" t="n"/>
-      <c r="C23" s="42" t="n"/>
-      <c r="D23" s="42" t="n"/>
+      <c r="C23" s="71" t="n"/>
+      <c r="D23" s="71" t="n"/>
       <c r="E23" s="42" t="n"/>
       <c r="F23" s="42" t="n"/>
     </row>
@@ -2517,8 +2520,8 @@
         <v>22</v>
       </c>
       <c r="B24" s="42" t="n"/>
-      <c r="C24" s="42" t="n"/>
-      <c r="D24" s="42" t="n"/>
+      <c r="C24" s="71" t="n"/>
+      <c r="D24" s="71" t="n"/>
       <c r="E24" s="42" t="n"/>
       <c r="F24" s="42" t="n"/>
     </row>
@@ -2527,8 +2530,8 @@
         <v>23</v>
       </c>
       <c r="B25" s="42" t="n"/>
-      <c r="C25" s="42" t="n"/>
-      <c r="D25" s="42" t="n"/>
+      <c r="C25" s="71" t="n"/>
+      <c r="D25" s="71" t="n"/>
       <c r="E25" s="42" t="n"/>
       <c r="F25" s="42" t="n"/>
     </row>
@@ -2537,8 +2540,8 @@
         <v>24</v>
       </c>
       <c r="B26" s="42" t="n"/>
-      <c r="C26" s="42" t="n"/>
-      <c r="D26" s="42" t="n"/>
+      <c r="C26" s="71" t="n"/>
+      <c r="D26" s="71" t="n"/>
       <c r="E26" s="42" t="n"/>
       <c r="F26" s="42" t="n"/>
     </row>
@@ -2547,8 +2550,8 @@
         <v>25</v>
       </c>
       <c r="B27" s="42" t="n"/>
-      <c r="C27" s="42" t="n"/>
-      <c r="D27" s="42" t="n"/>
+      <c r="C27" s="71" t="n"/>
+      <c r="D27" s="71" t="n"/>
       <c r="E27" s="42" t="n"/>
       <c r="F27" s="42" t="n"/>
     </row>
@@ -2557,8 +2560,8 @@
         <v>26</v>
       </c>
       <c r="B28" s="42" t="n"/>
-      <c r="C28" s="42" t="n"/>
-      <c r="D28" s="42" t="n"/>
+      <c r="C28" s="71" t="n"/>
+      <c r="D28" s="71" t="n"/>
       <c r="E28" s="42" t="n"/>
       <c r="F28" s="42" t="n"/>
     </row>
@@ -2567,8 +2570,8 @@
         <v>27</v>
       </c>
       <c r="B29" s="42" t="n"/>
-      <c r="C29" s="42" t="n"/>
-      <c r="D29" s="42" t="n"/>
+      <c r="C29" s="71" t="n"/>
+      <c r="D29" s="71" t="n"/>
       <c r="E29" s="42" t="n"/>
       <c r="F29" s="42" t="n"/>
     </row>
@@ -2577,8 +2580,8 @@
         <v>28</v>
       </c>
       <c r="B30" s="42" t="n"/>
-      <c r="C30" s="42" t="n"/>
-      <c r="D30" s="42" t="n"/>
+      <c r="C30" s="71" t="n"/>
+      <c r="D30" s="71" t="n"/>
       <c r="E30" s="42" t="n"/>
       <c r="F30" s="42" t="n"/>
     </row>
@@ -2587,8 +2590,8 @@
         <v>29</v>
       </c>
       <c r="B31" s="42" t="n"/>
-      <c r="C31" s="42" t="n"/>
-      <c r="D31" s="42" t="n"/>
+      <c r="C31" s="71" t="n"/>
+      <c r="D31" s="71" t="n"/>
       <c r="E31" s="42" t="n"/>
       <c r="F31" s="42" t="n"/>
     </row>
@@ -2597,8 +2600,8 @@
         <v>30</v>
       </c>
       <c r="B32" s="42" t="n"/>
-      <c r="C32" s="42" t="n"/>
-      <c r="D32" s="42" t="n"/>
+      <c r="C32" s="71" t="n"/>
+      <c r="D32" s="71" t="n"/>
       <c r="E32" s="42" t="n"/>
       <c r="F32" s="42" t="n"/>
     </row>
@@ -2607,5 +2610,6 @@
     <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="256" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/media/reports/izolasyon_MonoFazUI.xlsx
+++ b/media/reports/izolasyon_MonoFazUI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9348" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9348" windowWidth="23040" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rapor Sayfası" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="M_Listesi" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Rapor Sayfası" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="M_Listesi" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Rapor Sayfası'!$A$1:$O$68</definedName>
+    <definedName localSheetId="0" name="_xlnm.Print_Area">'Rapor Sayfası'!$A$1:$O$68</definedName>
   </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
@@ -19,8 +19,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt formatCode="0.000" numFmtId="164"/>
+    <numFmt formatCode="yyyy\-mm\-dd\ h:mm:ss" numFmtId="165"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -100,11 +100,11 @@
       <sz val="12"/>
     </font>
     <font>
+      <sz val="9"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="12"/>
-    </font>
-    <font>
-      <sz val="9"/>
     </font>
   </fonts>
   <fills count="8">
@@ -554,223 +554,223 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="89">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="14" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="15" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="16" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="24" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="7" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="23" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="22" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="25" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="25" fillId="7" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="6" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="21" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="23" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="18" fillId="0" fontId="5" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="19" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="20" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="20" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="25" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="25" fillId="7" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="27" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="16" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="14" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="21" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="15" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="23" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="32" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="22" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="30" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="31" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -843,7 +843,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>13</col>
@@ -854,17 +854,17 @@
     <ext cx="323850" cy="2952750"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -879,17 +879,17 @@
     <ext cx="323850" cy="2952750"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPr descr="Picture" id="2" name="Image 2"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -904,17 +904,17 @@
     <ext cx="9563100" cy="3733800"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPr descr="Picture" id="3" name="Image 3"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -929,17 +929,17 @@
     <ext cx="1228725" cy="847725"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPr descr="Picture" id="4" name="Image 4"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -951,20 +951,20 @@
       <row>11</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1228725" cy="847725"/>
+    <ext cx="1333500" cy="885825"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPr descr="Picture" id="5" name="Image 5"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1258,7 +1258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1266,30 +1266,30 @@
   </sheetPr>
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="13.33203125" customWidth="1" min="1" max="1"/>
-    <col width="7.6640625" customWidth="1" style="12" min="2" max="2"/>
-    <col width="5.6640625" customWidth="1" style="12" min="3" max="3"/>
-    <col width="5.21875" customWidth="1" style="12" min="4" max="4"/>
-    <col width="5.88671875" customWidth="1" style="12" min="5" max="5"/>
-    <col width="8.88671875" customWidth="1" style="12" min="6" max="6"/>
-    <col width="19.88671875" customWidth="1" style="12" min="7" max="7"/>
-    <col width="15.77734375" customWidth="1" style="12" min="8" max="8"/>
-    <col width="13.5546875" customWidth="1" style="12" min="9" max="9"/>
-    <col width="8.5546875" customWidth="1" style="12" min="10" max="10"/>
-    <col width="8.33203125" customWidth="1" style="12" min="11" max="11"/>
-    <col width="6.33203125" customWidth="1" style="12" min="12" max="12"/>
-    <col width="5.77734375" customWidth="1" style="12" min="13" max="13"/>
-    <col width="9" customWidth="1" style="12" min="14" max="14"/>
-    <col width="18.5546875" customWidth="1" style="12" min="15" max="15"/>
+    <col customWidth="1" max="1" min="1" width="13.33203125"/>
+    <col customWidth="1" max="2" min="2" style="12" width="7.6640625"/>
+    <col customWidth="1" max="3" min="3" style="12" width="5.6640625"/>
+    <col customWidth="1" max="4" min="4" style="12" width="5.21875"/>
+    <col customWidth="1" max="5" min="5" style="12" width="5.88671875"/>
+    <col customWidth="1" max="6" min="6" style="12" width="8.88671875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="19.88671875"/>
+    <col customWidth="1" max="8" min="8" style="12" width="15.77734375"/>
+    <col customWidth="1" max="9" min="9" style="12" width="13.5546875"/>
+    <col customWidth="1" max="10" min="10" style="12" width="8.5546875"/>
+    <col customWidth="1" max="11" min="11" style="12" width="8.33203125"/>
+    <col customWidth="1" max="12" min="12" style="12" width="6.33203125"/>
+    <col customWidth="1" max="13" min="13" style="12" width="5.77734375"/>
+    <col customWidth="1" max="14" min="14" style="12" width="9"/>
+    <col customWidth="1" max="15" min="15" style="12" width="18.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="1" thickBot="1">
       <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Trafo Tipi :</t>
@@ -1316,11 +1316,11 @@
       <c r="L1" s="27" t="n"/>
       <c r="M1" s="27" t="n"/>
       <c r="N1" s="57" t="n">
-        <v>44321.48400486504</v>
+        <v>44322.5572695138</v>
       </c>
       <c r="O1" s="50" t="n"/>
     </row>
-    <row r="2" ht="16.2" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="16.2" r="2" thickBot="1">
       <c r="A2" s="58" t="inlineStr">
         <is>
           <t>Değerler</t>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="B3" s="52" t="inlineStr">
         <is>
-          <t>500.0 VA</t>
+          <t>26000.0 VA</t>
         </is>
       </c>
       <c r="C3" s="72" t="n"/>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="H3" s="53" t="inlineStr">
         <is>
-          <t>0.015 kg</t>
+          <t>0.0 kg</t>
         </is>
       </c>
       <c r="I3" s="54" t="n"/>
@@ -1375,7 +1375,7 @@
       <c r="K3" s="60" t="n"/>
       <c r="L3" s="74" t="inlineStr">
         <is>
-          <t>100.0 x 120.0 x 72.0</t>
+          <t>85.0 x 120.0 x 171.0</t>
         </is>
       </c>
       <c r="M3" s="59" t="n"/>
@@ -1416,7 +1416,7 @@
       <c r="K4" s="76" t="n"/>
       <c r="L4" s="77" t="inlineStr">
         <is>
-          <t>600.0 x 262.0 x 500.0</t>
+          <t>302.0 x 290.0 x 354.0</t>
         </is>
       </c>
       <c r="O4" s="76" t="n"/>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="B5" s="52" t="inlineStr">
         <is>
-          <t>0.5 mm</t>
+          <t>0.35 mm</t>
         </is>
       </c>
       <c r="C5" s="72" t="n"/>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="H5" s="53" t="inlineStr">
         <is>
-          <t>0.0 kg</t>
+          <t>1.65 kg</t>
         </is>
       </c>
       <c r="I5" s="54" t="n"/>
@@ -1455,7 +1455,7 @@
       <c r="K5" s="76" t="n"/>
       <c r="L5" s="77" t="inlineStr">
         <is>
-          <t>TRV4B / 25.0 / 18.0 - 133 Kose</t>
+          <t>TRV4M / 25.0 / 18.0 - 84 Kose</t>
         </is>
       </c>
       <c r="O5" s="76" t="n"/>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="B6" s="52" t="inlineStr">
         <is>
-          <t>11500.0</t>
+          <t>12000.0</t>
         </is>
       </c>
       <c r="C6" s="72" t="n"/>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="H6" s="53" t="inlineStr">
         <is>
-          <t>0.0 kg</t>
+          <t>3.561 kg</t>
         </is>
       </c>
       <c r="I6" s="54" t="n"/>
@@ -1494,12 +1494,12 @@
       <c r="K6" s="76" t="n"/>
       <c r="L6" s="77" t="inlineStr">
         <is>
-          <t>175.728 kg(EI Sac)</t>
+          <t>71.63 kg(Kesme Sac)</t>
         </is>
       </c>
       <c r="O6" s="76" t="n"/>
     </row>
-    <row r="7" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="7" thickBot="1">
       <c r="A7" s="4" t="inlineStr">
         <is>
           <t>Frekans :</t>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H7" s="53" t="inlineStr">
         <is>
-          <t>Al:0.015 //  Cu:0.0kg</t>
+          <t>Al:0.0 //  Cu:5.211kg</t>
         </is>
       </c>
       <c r="I7" s="54" t="n"/>
@@ -1532,10 +1532,10 @@
       <c r="N7" s="31" t="n"/>
       <c r="O7" s="33" t="n"/>
     </row>
-    <row r="8" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="8" thickBot="1">
       <c r="A8" s="1" t="n"/>
     </row>
-    <row r="9" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="9" thickBot="1">
       <c r="A9" s="48" t="inlineStr">
         <is>
           <t>Primer</t>
@@ -1563,13 +1563,13 @@
       <c r="A10" s="1" t="n"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>344.0 V ( 344.0V )</t>
+          <t>400.0 V ( 400.0V )</t>
         </is>
       </c>
       <c r="I10" s="1" t="n"/>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0.0 V ( 0.0V )</t>
+          <t>230.0 V ( 459.4595V )</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B12" s="26" t="inlineStr">
         <is>
-          <t>Al</t>
+          <t>Cu</t>
         </is>
       </c>
       <c r="C12" s="22" t="n"/>
@@ -1604,7 +1604,11 @@
           <t>Tel :</t>
         </is>
       </c>
-      <c r="J12" s="22" t="inlineStr"/>
+      <c r="J12" s="22" t="inlineStr">
+        <is>
+          <t>Cu</t>
+        </is>
+      </c>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="22" t="n"/>
       <c r="M12" s="22" t="n"/>
@@ -1616,7 +1620,7 @@
         </is>
       </c>
       <c r="B13" s="26" t="n">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="C13" s="21" t="n"/>
       <c r="D13" s="21" t="n"/>
@@ -1627,7 +1631,7 @@
         </is>
       </c>
       <c r="J13" s="21" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="K13" s="21" t="n"/>
       <c r="L13" s="21" t="n"/>
@@ -1640,7 +1644,7 @@
         </is>
       </c>
       <c r="B14" s="26" t="n">
-        <v>0.07068583470577035</v>
+        <v>2.835287369864788</v>
       </c>
       <c r="C14" s="21" t="n"/>
       <c r="D14" s="21" t="n"/>
@@ -1652,7 +1656,7 @@
         </is>
       </c>
       <c r="J14" s="21" t="n">
-        <v>0</v>
+        <v>4.908738521234052</v>
       </c>
       <c r="K14" s="21" t="n"/>
       <c r="L14" s="21" t="n"/>
@@ -1666,7 +1670,7 @@
         </is>
       </c>
       <c r="B15" s="26" t="n">
-        <v>0.1130973355292326</v>
+        <v>8.505862109594364</v>
       </c>
       <c r="C15" s="21" t="n"/>
       <c r="D15" s="21" t="n"/>
@@ -1678,7 +1682,7 @@
         </is>
       </c>
       <c r="J15" s="21" t="n">
-        <v>0</v>
+        <v>14.72621556370216</v>
       </c>
       <c r="K15" s="21" t="n"/>
       <c r="L15" s="21" t="n"/>
@@ -1703,7 +1707,7 @@
         </is>
       </c>
       <c r="J16" s="21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K16" s="21" t="n"/>
       <c r="L16" s="21" t="n"/>
@@ -1716,7 +1720,7 @@
         </is>
       </c>
       <c r="B17" s="26" t="n">
-        <v>26.956944</v>
+        <v>33.446076</v>
       </c>
       <c r="C17" s="21" t="n"/>
       <c r="D17" s="21" t="n"/>
@@ -1727,7 +1731,7 @@
         </is>
       </c>
       <c r="J17" s="21" t="n">
-        <v>0</v>
+        <v>41.68683</v>
       </c>
       <c r="K17" s="21" t="n"/>
       <c r="L17" s="21" t="n"/>
@@ -1753,21 +1757,21 @@
       <c r="M18" s="25" t="n"/>
       <c r="O18" s="2" t="n"/>
     </row>
-    <row r="19" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="19">
       <c r="A19" s="81" t="inlineStr">
         <is>
           <t>Yuv. Tel :</t>
         </is>
       </c>
       <c r="B19" s="83" t="n">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="C19" s="24" t="n"/>
       <c r="D19" s="24" t="n"/>
       <c r="E19" s="24" t="n"/>
       <c r="G19" s="17" t="inlineStr">
         <is>
-          <t>56 sp</t>
+          <t>74 sp</t>
         </is>
       </c>
       <c r="I19" s="81" t="inlineStr">
@@ -1775,24 +1779,26 @@
           <t>Yuv. Tel :</t>
         </is>
       </c>
-      <c r="J19" s="24" t="n"/>
+      <c r="J19" s="83" t="n">
+        <v>2.5</v>
+      </c>
       <c r="K19" s="24" t="n"/>
       <c r="L19" s="24" t="n"/>
       <c r="M19" s="24" t="n"/>
       <c r="O19" s="17" t="inlineStr">
         <is>
-          <t>0 sp</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
+          <t>85 sp</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="20">
       <c r="A20" s="81" t="inlineStr">
         <is>
           <t>Ytel Agr :</t>
         </is>
       </c>
       <c r="B20" s="83" t="n">
-        <v>0.005144780036943111</v>
+        <v>0.8250143606327389</v>
       </c>
       <c r="C20" s="26" t="n"/>
       <c r="D20" s="26" t="n"/>
@@ -1802,12 +1808,14 @@
           <t>Ytel Agr :</t>
         </is>
       </c>
-      <c r="J20" s="26" t="n"/>
+      <c r="J20" s="83" t="n">
+        <v>1.780278809767477</v>
+      </c>
       <c r="K20" s="26" t="n"/>
       <c r="L20" s="26" t="n"/>
       <c r="M20" s="26" t="n"/>
     </row>
-    <row r="21" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="21">
       <c r="A21" s="81" t="inlineStr">
         <is>
           <t>Kare Tel :</t>
@@ -1827,7 +1835,7 @@
       <c r="L21" s="24" t="n"/>
       <c r="M21" s="24" t="n"/>
     </row>
-    <row r="22" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="22">
       <c r="A22" s="81" t="inlineStr">
         <is>
           <t>Ktel Agr :</t>
@@ -1847,7 +1855,7 @@
       <c r="L22" s="26" t="n"/>
       <c r="M22" s="26" t="n"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="23">
       <c r="A23" s="81" t="inlineStr">
         <is>
           <t>Folyo :</t>
@@ -1867,7 +1875,7 @@
       <c r="L23" s="24" t="n"/>
       <c r="M23" s="24" t="n"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="24">
       <c r="A24" s="81" t="inlineStr">
         <is>
           <t>Folyo Agr :</t>
@@ -1887,7 +1895,7 @@
       <c r="L24" s="26" t="n"/>
       <c r="M24" s="26" t="n"/>
     </row>
-    <row r="25" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="25">
       <c r="A25" s="81" t="inlineStr">
         <is>
           <t>Kapton :</t>
@@ -1909,15 +1917,15 @@
       <c r="M25" s="24" t="n"/>
       <c r="O25" s="2" t="n"/>
     </row>
-    <row r="26" ht="15" customHeight="1"/>
-    <row r="27" ht="15" customHeight="1"/>
-    <row r="28" ht="15" customHeight="1"/>
-    <row r="29" ht="15" customHeight="1" thickBot="1"/>
-    <row r="30" ht="15" customHeight="1" thickBot="1"/>
-    <row r="31" ht="15" customHeight="1" thickBot="1"/>
-    <row r="32" ht="15" customHeight="1" thickBot="1"/>
-    <row r="33" ht="15" customHeight="1" thickBot="1"/>
-    <row r="34" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="26"/>
+    <row customHeight="1" ht="15" r="27"/>
+    <row customHeight="1" ht="15" r="28"/>
+    <row customHeight="1" ht="15" r="29" thickBot="1"/>
+    <row customHeight="1" ht="15" r="30" thickBot="1"/>
+    <row customHeight="1" ht="15" r="31" thickBot="1"/>
+    <row customHeight="1" ht="15" r="32" thickBot="1"/>
+    <row customHeight="1" ht="15" r="33" thickBot="1"/>
+    <row customHeight="1" ht="15" r="34" thickBot="1">
       <c r="B34" s="34" t="inlineStr">
         <is>
           <t>IZOLASYON DEGERLERI</t>
@@ -1929,7 +1937,7 @@
       <c r="F34" s="35" t="n"/>
       <c r="G34" s="15" t="n"/>
     </row>
-    <row r="35" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="35" thickBot="1">
       <c r="B35" s="84" t="inlineStr">
         <is>
           <t>Primer Kademe</t>
@@ -1949,27 +1957,23 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1" thickBot="1">
-      <c r="B36" s="85" t="inlineStr">
-        <is>
-          <t>Yok</t>
-        </is>
+    <row customHeight="1" ht="15" r="36" thickBot="1">
+      <c r="B36" s="85" t="n">
+        <v>0.19</v>
       </c>
       <c r="C36" s="49" t="n"/>
       <c r="D36" s="49" t="n"/>
       <c r="E36" s="86" t="n"/>
-      <c r="F36" s="18" t="inlineStr">
+      <c r="F36" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="G36" s="19" t="inlineStr">
         <is>
           <t>Yok</t>
         </is>
       </c>
-      <c r="G36" s="19" t="inlineStr">
-        <is>
-          <t>Yok</t>
-        </is>
-      </c>
-    </row>
-    <row r="37" ht="15" customHeight="1" thickBot="1">
+    </row>
+    <row customHeight="1" ht="15" r="37" thickBot="1">
       <c r="B37" s="84" t="inlineStr">
         <is>
           <t xml:space="preserve">VA Kademe </t>
@@ -1989,7 +1993,7 @@
         </is>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="38" thickBot="1">
       <c r="B38" s="85" t="inlineStr">
         <is>
           <t>Yok</t>
@@ -2009,7 +2013,7 @@
         </is>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="39" thickBot="1">
       <c r="B39" s="84" t="inlineStr">
         <is>
           <t>Primer-Sekonder</t>
@@ -2025,7 +2029,7 @@
       </c>
       <c r="G39" s="8" t="n"/>
     </row>
-    <row r="40" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="40" thickBot="1">
       <c r="B40" s="85" t="inlineStr">
         <is>
           <t>Yok</t>
@@ -2041,7 +2045,7 @@
       </c>
       <c r="G40" s="16" t="n"/>
     </row>
-    <row r="41" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="41" thickBot="1">
       <c r="B41" s="34" t="inlineStr">
         <is>
           <t>NÜVE ÖLÇÜLERİ (mm)</t>
@@ -2053,7 +2057,7 @@
       <c r="F41" s="35" t="n"/>
       <c r="G41" s="35" t="n"/>
     </row>
-    <row r="42" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="42" thickBot="1">
       <c r="B42" s="7" t="inlineStr">
         <is>
           <t>a</t>
@@ -2088,17 +2092,17 @@
     <row r="43">
       <c r="B43" s="28" t="inlineStr">
         <is>
-          <t>0.0 mm</t>
+          <t>231.0 mm</t>
         </is>
       </c>
       <c r="C43" s="29" t="inlineStr">
         <is>
-          <t>0.0 mm</t>
+          <t>161.0 mm</t>
         </is>
       </c>
       <c r="D43" s="29" t="inlineStr">
         <is>
-          <t>0.0 mm</t>
+          <t>443.0 mm</t>
         </is>
       </c>
       <c r="E43" s="29" t="inlineStr"/>
@@ -2152,27 +2156,27 @@
     <row r="46">
       <c r="B46" s="28" t="inlineStr">
         <is>
-          <t>600.0 mm</t>
+          <t>302.0 mm</t>
         </is>
       </c>
       <c r="C46" s="29" t="inlineStr">
         <is>
-          <t>262.0 mm</t>
+          <t>290.0 mm</t>
         </is>
       </c>
       <c r="D46" s="29" t="inlineStr">
         <is>
-          <t>500.0 mm</t>
+          <t>354.0 mm</t>
         </is>
       </c>
       <c r="E46" s="29" t="inlineStr">
         <is>
-          <t>500.0 mm</t>
+          <t>217.0 mm</t>
         </is>
       </c>
       <c r="F46" s="29" t="inlineStr">
         <is>
-          <t>196.0 mm</t>
+          <t>210.0 mm</t>
         </is>
       </c>
       <c r="G46" s="30" t="inlineStr">
@@ -2216,9 +2220,9 @@
     <mergeCell ref="I11:M11"/>
     <mergeCell ref="A11:E11"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="58" fitToHeight="0" horizontalDpi="300" verticalDpi="300"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" horizontalDpi="300" orientation="portrait" paperSize="9" scale="58" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2237,10 +2241,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="4.44140625" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="19.33203125" customWidth="1" style="25" min="3" max="3"/>
-    <col width="19.77734375" customWidth="1" style="25" min="4" max="4"/>
+    <col customWidth="1" max="1" min="1" width="4.44140625"/>
+    <col customWidth="1" max="2" min="2" width="20"/>
+    <col customWidth="1" max="3" min="3" style="25" width="19.33203125"/>
+    <col customWidth="1" max="4" min="4" style="25" width="19.77734375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2281,16 +2285,16 @@
       </c>
       <c r="B3" s="42" t="inlineStr">
         <is>
-          <t>H010010X30AET</t>
+          <t>H010101X90EBT</t>
         </is>
       </c>
       <c r="C3" s="71" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D3" s="71" t="n">
-        <v>0.005144780036943111</v>
+        <v>0.8250143606327389</v>
       </c>
       <c r="E3" s="42" t="n"/>
       <c r="F3" s="42" t="n"/>
@@ -2301,15 +2305,17 @@
       </c>
       <c r="B4" s="42" t="inlineStr">
         <is>
-          <t>H0201001200TD</t>
+          <t>H010102X50EBT</t>
         </is>
       </c>
       <c r="C4" s="71" t="inlineStr">
         <is>
-          <t>100.0 x 120.0 x 72.0</t>
-        </is>
-      </c>
-      <c r="D4" s="71" t="n"/>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="D4" s="71" t="n">
+        <v>1.780278809767477</v>
+      </c>
       <c r="E4" s="42" t="n"/>
       <c r="F4" s="42" t="n"/>
     </row>
@@ -2319,19 +2325,15 @@
       </c>
       <c r="B5" s="42" t="inlineStr">
         <is>
-          <t>EI Sac</t>
+          <t>H0208501200TD</t>
         </is>
       </c>
       <c r="C5" s="71" t="inlineStr">
         <is>
-          <t>0.5 mm</t>
-        </is>
-      </c>
-      <c r="D5" s="71" t="inlineStr">
-        <is>
-          <t>175.728 kg</t>
-        </is>
-      </c>
+          <t>85.0 x 120.0 x 171.0</t>
+        </is>
+      </c>
+      <c r="D5" s="71" t="n"/>
       <c r="E5" s="42" t="n"/>
       <c r="F5" s="42" t="n"/>
     </row>
@@ -2339,9 +2341,21 @@
       <c r="A6" s="42" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="42" t="n"/>
-      <c r="C6" s="71" t="n"/>
-      <c r="D6" s="71" t="n"/>
+      <c r="B6" s="42" t="inlineStr">
+        <is>
+          <t>Kesme Sac</t>
+        </is>
+      </c>
+      <c r="C6" s="71" t="inlineStr">
+        <is>
+          <t>0.35 mm</t>
+        </is>
+      </c>
+      <c r="D6" s="71" t="inlineStr">
+        <is>
+          <t>71.63 kg</t>
+        </is>
+      </c>
       <c r="E6" s="42" t="n"/>
       <c r="F6" s="42" t="n"/>
     </row>
@@ -2609,7 +2623,7 @@
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="256" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="256" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/media/reports/izolasyon_MonoFazUI.xlsx
+++ b/media/reports/izolasyon_MonoFazUI.xlsx
@@ -1316,7 +1316,7 @@
       <c r="L1" s="27" t="n"/>
       <c r="M1" s="27" t="n"/>
       <c r="N1" s="57" t="n">
-        <v>44322.5572695138</v>
+        <v>44323.59861478923</v>
       </c>
       <c r="O1" s="50" t="n"/>
     </row>
@@ -1455,7 +1455,7 @@
       <c r="K5" s="76" t="n"/>
       <c r="L5" s="77" t="inlineStr">
         <is>
-          <t>TRV4M / 25.0 / 18.0 - 84 Kose</t>
+          <t xml:space="preserve"> / 0.0 / 0.0 - </t>
         </is>
       </c>
       <c r="O5" s="76" t="n"/>
@@ -2097,12 +2097,12 @@
       </c>
       <c r="C43" s="29" t="inlineStr">
         <is>
-          <t>161.0 mm</t>
+          <t>120.0 mm</t>
         </is>
       </c>
       <c r="D43" s="29" t="inlineStr">
         <is>
-          <t>443.0 mm</t>
+          <t>425.0 mm</t>
         </is>
       </c>
       <c r="E43" s="29" t="inlineStr"/>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="B3" s="42" t="inlineStr">
         <is>
-          <t>H010101X90EBT</t>
+          <t>H010011X90AET</t>
         </is>
       </c>
       <c r="C3" s="71" t="inlineStr">
@@ -2305,7 +2305,7 @@
       </c>
       <c r="B4" s="42" t="inlineStr">
         <is>
-          <t>H010102X50EBT</t>
+          <t>H010012X50AET</t>
         </is>
       </c>
       <c r="C4" s="71" t="inlineStr">
